--- a/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC1_TC4/7/UC1_TC4.evaluation.xlsx
+++ b/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC1_TC4/7/UC1_TC4.evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Proper interaction with DOM</t>
   </si>
   <si>
-    <t>(2) Average</t>
+    <t>(3) Average</t>
   </si>
   <si>
     <t>DOM interaction only via Page Object Model, no assumptions on DOM elements must be generated by the AI</t>
@@ -263,6 +263,9 @@
     </r>
   </si>
   <si>
+    <t>It makes an assumption at line 41</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Aptos Narrow"/>
@@ -433,6 +436,9 @@
       </rPr>
       <t>with the correct status "passed" or "failed"</t>
     </r>
+  </si>
+  <si>
+    <t>(2) Below average</t>
   </si>
   <si>
     <r>
@@ -785,13 +791,7 @@
     <t>Agree</t>
   </si>
   <si>
-    <t>(3) Average</t>
-  </si>
-  <si>
     <t>Neutral</t>
-  </si>
-  <si>
-    <t>(2) Below average</t>
   </si>
   <si>
     <t>Disagree</t>
@@ -1220,7 +1220,6 @@
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
@@ -4347,7 +4346,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -4357,7 +4358,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -4367,8 +4370,12 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
@@ -4405,7 +4412,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
@@ -4415,10 +4424,12 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -4435,20 +4446,24 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -7487,7 +7502,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -7497,7 +7514,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -7507,8 +7526,10 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
@@ -7545,7 +7566,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>18</v>
@@ -7555,10 +7578,12 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -7575,20 +7600,24 @@
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -10698,7 +10727,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -10718,17 +10747,17 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -13728,7 +13757,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -13736,20 +13765,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>44</v>
